--- a/200 Days/FINAL450.xlsx
+++ b/200 Days/FINAL450.xlsx
@@ -1745,31 +1745,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C508"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B294" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B305" activeCellId="0" sqref="B305"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B316" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B318" activeCellId="0" sqref="B318"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="11.06"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1780,12 +1780,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="8" t="s">
         <v>42</v>
       </c>
@@ -2178,14 +2178,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>43</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
         <v>43</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
         <v>43</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
         <v>43</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
         <v>43</v>
       </c>
@@ -2295,13 +2295,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
       <c r="B54" s="8"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
         <v>54</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>54</v>
       </c>
@@ -2334,7 +2333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
         <v>54</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
         <v>54</v>
       </c>
@@ -2356,7 +2355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
         <v>54</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
         <v>54</v>
       </c>
@@ -2400,7 +2399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
         <v>54</v>
       </c>
@@ -2411,7 +2410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
         <v>54</v>
       </c>
@@ -2422,7 +2421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -2433,7 +2432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
         <v>54</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
         <v>54</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
         <v>54</v>
       </c>
@@ -2466,7 +2465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
         <v>54</v>
       </c>
@@ -2477,7 +2476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -2488,7 +2487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
         <v>54</v>
       </c>
@@ -2499,7 +2498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
         <v>54</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
         <v>54</v>
       </c>
@@ -2521,7 +2520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -2532,7 +2531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
@@ -2565,7 +2564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -2576,7 +2575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
         <v>54</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
         <v>54</v>
       </c>
@@ -2598,7 +2597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
         <v>54</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
         <v>54</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -2653,7 +2652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
         <v>54</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
         <v>54</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
         <v>54</v>
       </c>
@@ -2686,7 +2685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
@@ -2708,7 +2707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
         <v>54</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
         <v>54</v>
       </c>
@@ -2730,7 +2729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
         <v>54</v>
       </c>
@@ -2741,7 +2740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
         <v>54</v>
       </c>
@@ -2752,7 +2751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
@@ -2763,7 +2762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -2774,13 +2773,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="8"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
         <v>98</v>
       </c>
@@ -2791,7 +2789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
         <v>98</v>
       </c>
@@ -2802,7 +2800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -2813,7 +2811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -2824,7 +2822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -2835,7 +2833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -2846,7 +2844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -2857,7 +2855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -2868,7 +2866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -2879,7 +2877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -2890,7 +2888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -2901,7 +2899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -2912,7 +2910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -2923,7 +2921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -2934,7 +2932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -2945,7 +2943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -2956,7 +2954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -2967,7 +2965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -2978,7 +2976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -2989,7 +2987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -3000,7 +2998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -3011,7 +3009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -3022,7 +3020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3033,7 +3031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
         <v>98</v>
       </c>
@@ -3044,7 +3042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3055,7 +3053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3066,7 +3064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3077,7 +3075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
         <v>98</v>
       </c>
@@ -3088,7 +3086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3099,7 +3097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3110,7 +3108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3121,7 +3119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3132,7 +3130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3143,7 +3141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3154,7 +3152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3165,7 +3163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3176,12 +3174,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="8"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
         <v>135</v>
       </c>
@@ -3192,7 +3189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
         <v>135</v>
       </c>
@@ -3203,7 +3200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
         <v>135</v>
       </c>
@@ -3214,7 +3211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
         <v>135</v>
       </c>
@@ -3225,7 +3222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>135</v>
       </c>
@@ -3236,7 +3233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
         <v>135</v>
       </c>
@@ -3247,7 +3244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>135</v>
       </c>
@@ -3258,7 +3255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>135</v>
       </c>
@@ -3269,7 +3266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
         <v>135</v>
       </c>
@@ -3280,7 +3277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
         <v>135</v>
       </c>
@@ -3291,7 +3288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
         <v>135</v>
       </c>
@@ -3302,7 +3299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
         <v>135</v>
       </c>
@@ -3313,7 +3310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
         <v>135</v>
       </c>
@@ -3324,7 +3321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
         <v>135</v>
       </c>
@@ -3335,7 +3332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
         <v>135</v>
       </c>
@@ -3346,7 +3343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
         <v>135</v>
       </c>
@@ -3357,7 +3354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
         <v>135</v>
       </c>
@@ -3368,7 +3365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
         <v>135</v>
       </c>
@@ -3379,7 +3376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
         <v>135</v>
       </c>
@@ -3390,7 +3387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
         <v>135</v>
       </c>
@@ -3401,7 +3398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
         <v>135</v>
       </c>
@@ -3412,7 +3409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
         <v>135</v>
       </c>
@@ -3423,7 +3420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
         <v>135</v>
       </c>
@@ -3434,7 +3431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
         <v>135</v>
       </c>
@@ -3445,7 +3442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
         <v>135</v>
       </c>
@@ -3456,7 +3453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
         <v>135</v>
       </c>
@@ -3467,7 +3464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
         <v>135</v>
       </c>
@@ -3478,7 +3475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
         <v>135</v>
       </c>
@@ -3489,7 +3486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
         <v>135</v>
       </c>
@@ -3500,7 +3497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
         <v>135</v>
       </c>
@@ -3511,7 +3508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
         <v>135</v>
       </c>
@@ -3522,7 +3519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
         <v>135</v>
       </c>
@@ -3533,7 +3530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
         <v>135</v>
       </c>
@@ -3544,7 +3541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
         <v>135</v>
       </c>
@@ -3555,7 +3552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
         <v>135</v>
       </c>
@@ -3566,7 +3563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
         <v>135</v>
       </c>
@@ -3577,12 +3574,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="8"/>
       <c r="C175" s="5"/>
     </row>
-    <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="s">
         <v>172</v>
       </c>
@@ -3593,7 +3589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
         <v>172</v>
       </c>
@@ -3604,7 +3600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
         <v>172</v>
       </c>
@@ -3615,7 +3611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
         <v>172</v>
       </c>
@@ -3626,7 +3622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
         <v>172</v>
       </c>
@@ -3637,7 +3633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
         <v>172</v>
       </c>
@@ -3648,7 +3644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
         <v>172</v>
       </c>
@@ -3659,7 +3655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
         <v>172</v>
       </c>
@@ -3670,7 +3666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
         <v>172</v>
       </c>
@@ -3681,7 +3677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
         <v>172</v>
       </c>
@@ -3692,7 +3688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
         <v>172</v>
       </c>
@@ -3703,7 +3699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
         <v>172</v>
       </c>
@@ -3714,7 +3710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
         <v>172</v>
       </c>
@@ -3725,7 +3721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
         <v>172</v>
       </c>
@@ -3736,7 +3732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
         <v>172</v>
       </c>
@@ -3747,7 +3743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
         <v>172</v>
       </c>
@@ -3758,7 +3754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
         <v>172</v>
       </c>
@@ -3769,7 +3765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
         <v>172</v>
       </c>
@@ -3780,7 +3776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
         <v>172</v>
       </c>
@@ -3791,7 +3787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
         <v>172</v>
       </c>
@@ -3802,7 +3798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
         <v>172</v>
       </c>
@@ -3813,7 +3809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -3824,7 +3820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
         <v>172</v>
       </c>
@@ -3835,7 +3831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
@@ -3846,7 +3842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
         <v>172</v>
       </c>
@@ -3857,7 +3853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
@@ -3868,7 +3864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
         <v>172</v>
       </c>
@@ -3879,7 +3875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
@@ -3890,7 +3886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
         <v>172</v>
       </c>
@@ -3901,7 +3897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
         <v>172</v>
       </c>
@@ -3912,7 +3908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
         <v>172</v>
       </c>
@@ -3923,7 +3919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
         <v>172</v>
       </c>
@@ -3934,7 +3930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
         <v>172</v>
       </c>
@@ -3945,7 +3941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -3956,7 +3952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
@@ -3967,17 +3963,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6"/>
       <c r="B211" s="8"/>
       <c r="C211" s="5"/>
     </row>
-    <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
         <v>208</v>
       </c>
@@ -3988,7 +3984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
         <v>208</v>
       </c>
@@ -3999,7 +3995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
         <v>208</v>
       </c>
@@ -4010,7 +4006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
         <v>208</v>
       </c>
@@ -4021,7 +4017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
         <v>208</v>
       </c>
@@ -4032,7 +4028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
         <v>208</v>
       </c>
@@ -4043,7 +4039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
         <v>208</v>
       </c>
@@ -4054,7 +4050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
@@ -4065,7 +4061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
         <v>208</v>
       </c>
@@ -4076,7 +4072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
         <v>208</v>
       </c>
@@ -4087,7 +4083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
         <v>208</v>
       </c>
@@ -4098,7 +4094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
         <v>208</v>
       </c>
@@ -4109,7 +4105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
         <v>208</v>
       </c>
@@ -4120,7 +4116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
         <v>208</v>
       </c>
@@ -4131,7 +4127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
         <v>208</v>
       </c>
@@ -4142,7 +4138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
         <v>208</v>
       </c>
@@ -4153,7 +4149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
         <v>208</v>
       </c>
@@ -4164,7 +4160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
         <v>208</v>
       </c>
@@ -4175,7 +4171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
@@ -4186,7 +4182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
         <v>208</v>
       </c>
@@ -4197,7 +4193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -4208,7 +4204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
         <v>208</v>
       </c>
@@ -4219,15 +4215,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="8"/>
       <c r="C235" s="5"/>
     </row>
-    <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
         <v>231</v>
       </c>
@@ -4238,7 +4234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
@@ -4249,7 +4245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
         <v>231</v>
       </c>
@@ -4260,7 +4256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
         <v>231</v>
       </c>
@@ -4271,7 +4267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
         <v>231</v>
       </c>
@@ -4282,7 +4278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
         <v>231</v>
       </c>
@@ -4293,7 +4289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
         <v>231</v>
       </c>
@@ -4304,7 +4300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
         <v>231</v>
       </c>
@@ -4315,7 +4311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
         <v>231</v>
       </c>
@@ -4326,7 +4322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
         <v>231</v>
       </c>
@@ -4337,7 +4333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
         <v>231</v>
       </c>
@@ -4348,7 +4344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
         <v>231</v>
       </c>
@@ -4359,7 +4355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
         <v>231</v>
       </c>
@@ -4370,7 +4366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
         <v>231</v>
       </c>
@@ -4381,7 +4377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
         <v>231</v>
       </c>
@@ -4392,7 +4388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
         <v>231</v>
       </c>
@@ -4403,7 +4399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
         <v>231</v>
       </c>
@@ -4414,7 +4410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
         <v>231</v>
       </c>
@@ -4425,7 +4421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
         <v>231</v>
       </c>
@@ -4436,7 +4432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -4447,7 +4443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
         <v>231</v>
       </c>
@@ -4458,7 +4454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
         <v>231</v>
       </c>
@@ -4469,7 +4465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
         <v>231</v>
       </c>
@@ -4480,7 +4476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
         <v>231</v>
       </c>
@@ -4491,7 +4487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
         <v>231</v>
       </c>
@@ -4502,7 +4498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
         <v>231</v>
       </c>
@@ -4513,7 +4509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
         <v>231</v>
       </c>
@@ -4524,7 +4520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
         <v>231</v>
       </c>
@@ -4535,7 +4531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
         <v>231</v>
       </c>
@@ -4546,7 +4542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
         <v>231</v>
       </c>
@@ -4557,7 +4553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
         <v>231</v>
       </c>
@@ -4568,7 +4564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
         <v>231</v>
       </c>
@@ -4579,7 +4575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
         <v>231</v>
       </c>
@@ -4590,7 +4586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
         <v>231</v>
       </c>
@@ -4601,7 +4597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
         <v>231</v>
       </c>
@@ -4612,7 +4608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
         <v>231</v>
       </c>
@@ -4621,17 +4617,17 @@
       </c>
       <c r="C272" s="5"/>
     </row>
-    <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="8"/>
       <c r="C274" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
         <v>266</v>
       </c>
@@ -4642,7 +4638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4653,7 +4649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4664,7 +4660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4675,7 +4671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4719,7 +4715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4730,7 +4726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4741,7 +4737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -4774,7 +4770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>
@@ -4841,13 +4837,13 @@
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C294" s="5"/>
     </row>
-    <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="8"/>
       <c r="C295" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="8"/>
       <c r="C296" s="5" t="s">
         <v>5</v>
@@ -4952,7 +4948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
         <v>286</v>
       </c>
@@ -4963,7 +4959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
         <v>286</v>
       </c>
@@ -4974,7 +4970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
         <v>286</v>
       </c>
@@ -4985,7 +4981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
@@ -4996,7 +4992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
@@ -5007,7 +5003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
         <v>286</v>
       </c>
@@ -5018,7 +5014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
         <v>286</v>
       </c>
@@ -5029,7 +5025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
         <v>286</v>
       </c>
@@ -5040,7 +5036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
@@ -5051,7 +5047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
         <v>286</v>
       </c>
@@ -5062,7 +5058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5073,7 +5069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5084,7 +5080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5095,7 +5091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5106,7 +5102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5117,7 +5113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5128,7 +5124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5139,7 +5135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5150,7 +5146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5161,7 +5157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
         <v>286</v>
       </c>
@@ -5172,7 +5168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
         <v>286</v>
       </c>
@@ -5183,7 +5179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
         <v>286</v>
       </c>
@@ -5194,7 +5190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
         <v>286</v>
       </c>
@@ -5205,7 +5201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
         <v>286</v>
       </c>
@@ -5216,7 +5212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
         <v>286</v>
       </c>
@@ -5227,7 +5223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
         <v>286</v>
       </c>
@@ -5238,7 +5234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
         <v>286</v>
       </c>
@@ -5249,7 +5245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
@@ -5258,7 +5254,7 @@
       </c>
       <c r="C333" s="5"/>
     </row>
-    <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="6" t="s">
         <v>286</v>
       </c>
@@ -5267,7 +5263,7 @@
       </c>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="6" t="s">
         <v>286</v>
       </c>
@@ -5278,13 +5274,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="8"/>
       <c r="C336" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
         <v>325</v>
       </c>
@@ -5295,7 +5291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
         <v>325</v>
       </c>
@@ -5306,7 +5302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
         <v>325</v>
       </c>
@@ -5317,7 +5313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
         <v>325</v>
       </c>
@@ -5328,7 +5324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
         <v>325</v>
       </c>
@@ -5339,7 +5335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
         <v>325</v>
       </c>
@@ -5350,7 +5346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
         <v>325</v>
       </c>
@@ -5361,7 +5357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
         <v>325</v>
       </c>
@@ -5372,7 +5368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
         <v>325</v>
       </c>
@@ -5383,7 +5379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
         <v>325</v>
       </c>
@@ -5394,7 +5390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
         <v>325</v>
       </c>
@@ -5405,7 +5401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
         <v>325</v>
       </c>
@@ -5416,7 +5412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
         <v>325</v>
       </c>
@@ -5427,7 +5423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
         <v>325</v>
       </c>
@@ -5438,7 +5434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
         <v>325</v>
       </c>
@@ -5449,7 +5445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
         <v>325</v>
       </c>
@@ -5460,7 +5456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
         <v>325</v>
       </c>
@@ -5469,7 +5465,7 @@
       </c>
       <c r="C353" s="5"/>
     </row>
-    <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="6" t="s">
         <v>325</v>
       </c>
@@ -5478,19 +5474,19 @@
       </c>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="8"/>
       <c r="C355" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="8"/>
       <c r="C356" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
         <v>344</v>
       </c>
@@ -5501,7 +5497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
         <v>344</v>
       </c>
@@ -5512,7 +5508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
         <v>344</v>
       </c>
@@ -5523,7 +5519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
         <v>344</v>
       </c>
@@ -5534,7 +5530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
         <v>344</v>
       </c>
@@ -5545,7 +5541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
         <v>344</v>
       </c>
@@ -5556,7 +5552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
         <v>344</v>
       </c>
@@ -5567,7 +5563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
         <v>344</v>
       </c>
@@ -5578,7 +5574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
         <v>344</v>
       </c>
@@ -5589,7 +5585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
         <v>344</v>
       </c>
@@ -5600,7 +5596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
         <v>344</v>
       </c>
@@ -5611,7 +5607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
         <v>344</v>
       </c>
@@ -5622,7 +5618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
         <v>344</v>
       </c>
@@ -5633,7 +5629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
         <v>344</v>
       </c>
@@ -5644,7 +5640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
         <v>344</v>
       </c>
@@ -5655,7 +5651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
         <v>344</v>
       </c>
@@ -5666,7 +5662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
         <v>344</v>
       </c>
@@ -5677,7 +5673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
         <v>344</v>
       </c>
@@ -5688,7 +5684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
         <v>344</v>
       </c>
@@ -5699,7 +5695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
         <v>344</v>
       </c>
@@ -5710,7 +5706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
         <v>344</v>
       </c>
@@ -5721,7 +5717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
         <v>344</v>
       </c>
@@ -5732,7 +5728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
         <v>344</v>
       </c>
@@ -5743,7 +5739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
         <v>344</v>
       </c>
@@ -5754,7 +5750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
         <v>344</v>
       </c>
@@ -5765,7 +5761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
         <v>344</v>
       </c>
@@ -5776,7 +5772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
         <v>344</v>
       </c>
@@ -5787,7 +5783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
         <v>344</v>
       </c>
@@ -5798,7 +5794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
         <v>344</v>
       </c>
@@ -5809,7 +5805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
         <v>344</v>
       </c>
@@ -5820,7 +5816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
         <v>344</v>
       </c>
@@ -5831,7 +5827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
         <v>344</v>
       </c>
@@ -5842,7 +5838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
         <v>344</v>
       </c>
@@ -5853,7 +5849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
         <v>344</v>
       </c>
@@ -5864,7 +5860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
         <v>344</v>
       </c>
@@ -5875,7 +5871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
         <v>344</v>
       </c>
@@ -5886,7 +5882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
         <v>344</v>
       </c>
@@ -5897,7 +5893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
         <v>344</v>
       </c>
@@ -5908,7 +5904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
         <v>344</v>
       </c>
@@ -5919,7 +5915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
         <v>344</v>
       </c>
@@ -5930,7 +5926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
         <v>344</v>
       </c>
@@ -5941,7 +5937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
         <v>344</v>
       </c>
@@ -5952,7 +5948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
         <v>344</v>
       </c>
@@ -5961,7 +5957,7 @@
       </c>
       <c r="C399" s="5"/>
     </row>
-    <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="6" t="s">
         <v>344</v>
       </c>
@@ -5979,7 +5975,7 @@
       </c>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
         <v>344</v>
       </c>
@@ -7043,7 +7039,6 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>

--- a/200 Days/FINAL450.xlsx
+++ b/200 Days/FINAL450.xlsx
@@ -1747,8 +1747,8 @@
   </sheetPr>
   <dimension ref="A1:C508"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B316" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B318" activeCellId="0" sqref="B318"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B322" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B327" activeCellId="0" sqref="B327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
